--- a/Anhang/Berechnung CWSS-Score (Passwort).xlsx
+++ b/Anhang/Berechnung CWSS-Score (Passwort).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\3. Semester\Unterlagen\Sicherer Programmierung\chess_server_strong\Anhang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E488C63-5B9A-4608-813B-62FD4B3D3C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E24D35F-043A-46D2-A307-4EB1A8AC46D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="146">
   <si>
     <t xml:space="preserve">The Common Weakness Scoring System (CWSS) provides a mechanism for prioritizing software weaknesses in a consistent, flexible, open manner. </t>
   </si>
@@ -486,9 +486,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Plaintext Storage of a Password</t>
-  </si>
-  <si>
     <t>Use of Password System for primary Authentification</t>
   </si>
   <si>
@@ -498,9 +495,6 @@
     <t>Weak Password Requirements</t>
   </si>
   <si>
-    <t>Insufficiently Protected Credentials</t>
-  </si>
-  <si>
     <t>Missing Password Field Masking</t>
   </si>
   <si>
@@ -514,6 +508,18 @@
   </si>
   <si>
     <t>Inclusion of Sensitive Information in Source Code</t>
+  </si>
+  <si>
+    <t>Use of Predictable Algorithm in Random Number Generator</t>
+  </si>
+  <si>
+    <t>Small Space of Random Values</t>
+  </si>
+  <si>
+    <t>Use of Cryptographically Weak Pseudo-Random Number Generator (PRNG)</t>
+  </si>
+  <si>
+    <t>Insufficient Entropy</t>
   </si>
 </sst>
 </file>
@@ -919,7 +925,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1133,6 +1139,15 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1142,15 +1157,6 @@
     <xf numFmtId="0" fontId="18" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1188,6 +1194,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3947,10 +3962,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C12E03-251F-4DCA-8481-420E98676B76}">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4033,432 +4048,516 @@
       <c r="O4" s="92"/>
       <c r="P4" s="93"/>
     </row>
-    <row r="5" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="78">
-        <v>256</v>
-      </c>
-      <c r="B5" s="79" t="s">
+    <row r="5" spans="1:16" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="75">
+        <v>259</v>
+      </c>
+      <c r="B5" s="76" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="77"/>
+    </row>
+    <row r="6" spans="1:16" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="75"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="77"/>
+    </row>
+    <row r="7" spans="1:16" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="94">
+        <v>307</v>
+      </c>
+      <c r="B7" s="95" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="95"/>
+      <c r="N7" s="95"/>
+      <c r="O7" s="95"/>
+      <c r="P7" s="96"/>
+    </row>
+    <row r="8" spans="1:16" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="94"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="95"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="96"/>
+    </row>
+    <row r="9" spans="1:16" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="75">
+        <v>308</v>
+      </c>
+      <c r="B9" s="76" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="77"/>
+    </row>
+    <row r="10" spans="1:16" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="75"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="76"/>
+      <c r="P10" s="77"/>
+    </row>
+    <row r="11" spans="1:16" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="78">
+        <v>309</v>
+      </c>
+      <c r="B11" s="79" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="79"/>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="80"/>
-    </row>
-    <row r="6" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="78"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="79"/>
-      <c r="P6" s="80"/>
-    </row>
-    <row r="7" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="75">
-        <v>309</v>
-      </c>
-      <c r="B7" s="76" t="s">
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="79"/>
+      <c r="P11" s="80"/>
+    </row>
+    <row r="12" spans="1:16" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="78"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="79"/>
+      <c r="O12" s="79"/>
+      <c r="P12" s="80"/>
+    </row>
+    <row r="13" spans="1:16" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="75">
+        <v>312</v>
+      </c>
+      <c r="B13" s="76" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="76"/>
-      <c r="P7" s="77"/>
-    </row>
-    <row r="8" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="75"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="76"/>
-      <c r="P8" s="77"/>
-    </row>
-    <row r="9" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="78">
-        <v>312</v>
-      </c>
-      <c r="B9" s="79" t="s">
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="76"/>
+      <c r="P13" s="77"/>
+    </row>
+    <row r="14" spans="1:16" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="75"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="76"/>
+      <c r="P14" s="77"/>
+    </row>
+    <row r="15" spans="1:16" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="78">
+        <v>331</v>
+      </c>
+      <c r="B15" s="79" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="79"/>
+      <c r="N15" s="79"/>
+      <c r="O15" s="79"/>
+      <c r="P15" s="80"/>
+    </row>
+    <row r="16" spans="1:16" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="78"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="79"/>
+      <c r="O16" s="79"/>
+      <c r="P16" s="80"/>
+    </row>
+    <row r="17" spans="1:16" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="75">
+        <v>334</v>
+      </c>
+      <c r="B17" s="76" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="76"/>
+      <c r="N17" s="76"/>
+      <c r="O17" s="76"/>
+      <c r="P17" s="77"/>
+    </row>
+    <row r="18" spans="1:16" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="75"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="76"/>
+      <c r="O18" s="76"/>
+      <c r="P18" s="77"/>
+    </row>
+    <row r="19" spans="1:16" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="94">
+        <v>338</v>
+      </c>
+      <c r="B19" s="95" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="96"/>
+    </row>
+    <row r="20" spans="1:16" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="94"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="96"/>
+    </row>
+    <row r="21" spans="1:16" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="75">
+        <v>521</v>
+      </c>
+      <c r="B21" s="76" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="79"/>
-      <c r="P9" s="80"/>
-    </row>
-    <row r="10" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="78"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="79"/>
-      <c r="O10" s="79"/>
-      <c r="P10" s="80"/>
-    </row>
-    <row r="11" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="75">
-        <v>521</v>
-      </c>
-      <c r="B11" s="76" t="s">
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="76"/>
+      <c r="O21" s="76"/>
+      <c r="P21" s="77"/>
+    </row>
+    <row r="22" spans="1:16" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="75"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="76"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="76"/>
+      <c r="N22" s="76"/>
+      <c r="O22" s="76"/>
+      <c r="P22" s="77"/>
+    </row>
+    <row r="23" spans="1:16" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="94">
+        <v>540</v>
+      </c>
+      <c r="B23" s="95" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="95"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="95"/>
+      <c r="I23" s="95"/>
+      <c r="J23" s="95"/>
+      <c r="K23" s="95"/>
+      <c r="L23" s="95"/>
+      <c r="M23" s="95"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="95"/>
+      <c r="P23" s="96"/>
+    </row>
+    <row r="24" spans="1:16" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="94"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="95"/>
+      <c r="I24" s="95"/>
+      <c r="J24" s="95"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="96"/>
+    </row>
+    <row r="25" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="75">
+        <v>549</v>
+      </c>
+      <c r="B25" s="76" t="s">
         <v>137</v>
       </c>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="76"/>
-      <c r="M11" s="76"/>
-      <c r="N11" s="76"/>
-      <c r="O11" s="76"/>
-      <c r="P11" s="77"/>
-    </row>
-    <row r="12" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="75"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="76"/>
-      <c r="O12" s="76"/>
-      <c r="P12" s="77"/>
-    </row>
-    <row r="13" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="78">
-        <v>522</v>
-      </c>
-      <c r="B13" s="79" t="s">
-        <v>138</v>
-      </c>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="79"/>
-      <c r="O13" s="79"/>
-      <c r="P13" s="80"/>
-    </row>
-    <row r="14" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="78"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="79"/>
-      <c r="N14" s="79"/>
-      <c r="O14" s="79"/>
-      <c r="P14" s="80"/>
-    </row>
-    <row r="15" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="75">
-        <v>549</v>
-      </c>
-      <c r="B15" s="76" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="76"/>
-      <c r="M15" s="76"/>
-      <c r="N15" s="76"/>
-      <c r="O15" s="76"/>
-      <c r="P15" s="77"/>
-    </row>
-    <row r="16" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="75"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="76"/>
-      <c r="N16" s="76"/>
-      <c r="O16" s="76"/>
-      <c r="P16" s="77"/>
-    </row>
-    <row r="17" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="78">
-        <v>307</v>
-      </c>
-      <c r="B17" s="79" t="s">
-        <v>140</v>
-      </c>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="79"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="79"/>
-      <c r="N17" s="79"/>
-      <c r="O17" s="79"/>
-      <c r="P17" s="80"/>
-    </row>
-    <row r="18" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="78"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="79"/>
-      <c r="O18" s="79"/>
-      <c r="P18" s="80"/>
-    </row>
-    <row r="19" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="75">
-        <v>308</v>
-      </c>
-      <c r="B19" s="76" t="s">
-        <v>141</v>
-      </c>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="76"/>
-      <c r="N19" s="76"/>
-      <c r="O19" s="76"/>
-      <c r="P19" s="77"/>
-    </row>
-    <row r="20" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="75"/>
-      <c r="B20" s="76"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="76"/>
-      <c r="O20" s="76"/>
-      <c r="P20" s="77"/>
-    </row>
-    <row r="21" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="78">
-        <v>259</v>
-      </c>
-      <c r="B21" s="79" t="s">
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="76"/>
+      <c r="L25" s="76"/>
+      <c r="M25" s="76"/>
+      <c r="N25" s="76"/>
+      <c r="O25" s="76"/>
+      <c r="P25" s="77"/>
+    </row>
+    <row r="26" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="75"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="76"/>
+      <c r="O26" s="76"/>
+      <c r="P26" s="77"/>
+    </row>
+    <row r="27" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="94">
+        <v>1241</v>
+      </c>
+      <c r="B27" s="95" t="s">
         <v>142</v>
       </c>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="79"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="79"/>
-      <c r="O21" s="79"/>
-      <c r="P21" s="80"/>
-    </row>
-    <row r="22" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="78"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="79"/>
-      <c r="O22" s="79"/>
-      <c r="P22" s="80"/>
-    </row>
-    <row r="23" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="75">
-        <v>540</v>
-      </c>
-      <c r="B23" s="76" t="s">
-        <v>143</v>
-      </c>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="76"/>
-      <c r="N23" s="76"/>
-      <c r="O23" s="76"/>
-      <c r="P23" s="77"/>
-    </row>
-    <row r="24" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="75"/>
-      <c r="B24" s="76"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="76"/>
-      <c r="N24" s="76"/>
-      <c r="O24" s="76"/>
-      <c r="P24" s="77"/>
-    </row>
-    <row r="25" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="95"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="95"/>
+      <c r="J27" s="95"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="95"/>
+      <c r="P27" s="96"/>
+    </row>
+    <row r="28" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="94"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="95"/>
+      <c r="G28" s="95"/>
+      <c r="H28" s="95"/>
+      <c r="I28" s="95"/>
+      <c r="J28" s="95"/>
+      <c r="K28" s="95"/>
+      <c r="L28" s="95"/>
+      <c r="M28" s="95"/>
+      <c r="N28" s="95"/>
+      <c r="O28" s="95"/>
+      <c r="P28" s="96"/>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:P22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:P24"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:P8"/>
+  <mergeCells count="27">
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:P26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:P28"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:P18"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:P20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:P22"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:P14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:P16"/>
     <mergeCell ref="A1:P2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:P4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:P6"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:P16"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:P24"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:P8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:P10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:P12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:P14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
